--- a/biology/Mycologie/Daedaleopsis_tricolor/Daedaleopsis_tricolor.xlsx
+++ b/biology/Mycologie/Daedaleopsis_tricolor/Daedaleopsis_tricolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daedaleopsis tricolor est une espèce de champignons basidiomycètes de la famille des Polyporacées.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Daedaleopsis tricolor (Bull.) Bondartsev &amp; Singer, 1941[1],[2].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus tricolor Bull., 1792[1].
-Daedaleopsis tricolor a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Daedaleopsis tricolor (Bull.) Bondartsev &amp; Singer, 1941,.
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus tricolor Bull., 1792.
+Daedaleopsis tricolor a pour synonymes :
 Agaricus sepiarius var. tricolor (Bull.) Pers., 1801
 Agaricus tricolor Bull., 1792
 Cellularia tricolor (Bull.) Kuntze, 1898
@@ -556,7 +570,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) A. Bondarzew et R. Singer, « Zur Systematik der Polyporaceen », Annales Mycologici, vol. 39, no 1,‎ 10 février 1941, p. 43-65 (ISSN 0176-3970, lire en ligne)</t>
         </is>
